--- a/data/case1/18/P_device_2.xlsx
+++ b/data/case1/18/P_device_2.xlsx
@@ -56,32 +56,32 @@
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
     <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.01202263020840452</v>
+        <v>0.050725434207982312</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.012022631074945698</v>
+        <v>-0.050725434693391816</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.055052625554033299</v>
+        <v>0.022265225487358813</v>
       </c>
       <c r="B2" s="0">
-        <v>0.055052624699842637</v>
+        <v>-0.022265225976668333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.037782642838584388</v>
+        <v>-0.046590928993746533</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.037782643640701427</v>
+        <v>0.046590928477969008</v>
       </c>
     </row>
     <row r="4">
